--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/10/seed2/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.114399999999987</v>
+        <v>5.85129999999999</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>12.19299999999999</v>
+        <v>12.36819999999999</v>
       </c>
     </row>
     <row r="6">
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>13.77060000000001</v>
+        <v>13.01470000000001</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.59889999999999</v>
+        <v>13.4942</v>
       </c>
     </row>
     <row r="12">
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.895299999999994</v>
+        <v>5.781399999999995</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.08389999999999</v>
+        <v>13.10089999999999</v>
       </c>
     </row>
     <row r="22">
@@ -822,7 +822,7 @@
         <v>-20.86</v>
       </c>
       <c r="B23" t="n">
-        <v>6.305199999999994</v>
+        <v>5.893099999999997</v>
       </c>
       <c r="C23" t="n">
         <v>-10.59</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.859499999999992</v>
+        <v>5.779299999999994</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
